--- a/10-16캡스톤/2021-10-16.xlsx
+++ b/10-16캡스톤/2021-10-16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone_Design_DB\YUHAN_CAPSTONE_DB\YUHAN_CAPSTONE_DB\10-13캡스톤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alzhx\Desktop\캡스톤\CAP_DB\YUHAN_CAPSTONE_DB\10-16캡스톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA010A0-B7AD-4B43-BBF6-21E433B6294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9AB20-7E0D-4F5E-9F17-9E223978290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="270" windowWidth="18765" windowHeight="20805" xr2:uid="{A62C6EFF-DA20-44F1-B753-B6A6F797B5D4}"/>
+    <workbookView xWindow="2080" yWindow="1940" windowWidth="20290" windowHeight="12170" xr2:uid="{A62C6EFF-DA20-44F1-B753-B6A6F797B5D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,27 +594,27 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.375" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -628,7 +628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>33</v>
@@ -654,7 +654,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>33</v>
@@ -703,45 +703,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -749,17 +748,18 @@
       <c r="G11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>32</v>
@@ -770,8 +770,11 @@
       <c r="G12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>35</v>
@@ -821,7 +824,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -832,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>33</v>
@@ -841,60 +844,60 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:3" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="217.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
     </row>
   </sheetData>
